--- a/data/financial_statements/sofp/CHRW.xlsx
+++ b/data/financial_statements/sofp/CHRW.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -122,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -487,144 +598,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>188000000</v>
+        <v>187532000</v>
       </c>
       <c r="C2">
-        <v>239000000</v>
+        <v>238925000</v>
       </c>
       <c r="D2">
-        <v>243000000</v>
+        <v>242809000</v>
       </c>
       <c r="E2">
-        <v>257000000</v>
+        <v>257413000</v>
       </c>
       <c r="F2">
-        <v>203000000</v>
+        <v>202649000</v>
       </c>
       <c r="G2">
         <v>172803000</v>
@@ -730,23 +841,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>4166000000</v>
+        <v>3802160000</v>
       </c>
       <c r="C3">
-        <v>4821000000</v>
+        <v>4302321000</v>
       </c>
       <c r="D3">
-        <v>4896000000</v>
+        <v>4391512000</v>
       </c>
       <c r="E3">
-        <v>4417000000</v>
+        <v>3963487000</v>
       </c>
       <c r="F3">
-        <v>4139000000</v>
+        <v>3721571000</v>
       </c>
       <c r="G3">
         <v>3166769000</v>
@@ -852,23 +963,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>80000000</v>
+        <v>363697000</v>
       </c>
       <c r="C4">
-        <v>108000000</v>
+        <v>518752000</v>
       </c>
       <c r="D4">
-        <v>140000000</v>
+        <v>504604000</v>
       </c>
       <c r="E4">
-        <v>130000000</v>
+        <v>453660000</v>
       </c>
       <c r="F4">
-        <v>89000000</v>
+        <v>416971000</v>
       </c>
       <c r="G4">
         <v>292760000</v>
@@ -914,23 +1025,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>4433000000</v>
+        <v>4433366000</v>
       </c>
       <c r="C5">
-        <v>5168000000</v>
+        <v>5168256000</v>
       </c>
       <c r="D5">
-        <v>5279000000</v>
+        <v>5279231000</v>
       </c>
       <c r="E5">
-        <v>4804000000</v>
+        <v>4804153000</v>
       </c>
       <c r="F5">
-        <v>4431000000</v>
+        <v>4430663000</v>
       </c>
       <c r="G5">
         <v>3722562000</v>
@@ -1036,23 +1147,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>508000000</v>
+        <v>158706000</v>
       </c>
       <c r="C6">
-        <v>494000000</v>
+        <v>155829000</v>
       </c>
       <c r="D6">
-        <v>437000000</v>
+        <v>139926000</v>
       </c>
       <c r="E6">
-        <v>432000000</v>
+        <v>139831000</v>
       </c>
       <c r="F6">
-        <v>475000000</v>
+        <v>177418000</v>
       </c>
       <c r="G6">
         <v>174194000</v>
@@ -1158,23 +1269,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>1526000000</v>
+        <v>1526425000</v>
       </c>
       <c r="C7">
-        <v>1549000000</v>
+        <v>1548644000</v>
       </c>
       <c r="D7">
-        <v>1573000000</v>
+        <v>1572627000</v>
       </c>
       <c r="E7">
-        <v>1644000000</v>
+        <v>1574360000</v>
       </c>
       <c r="F7">
-        <v>1582000000</v>
+        <v>1582224000</v>
       </c>
       <c r="G7">
         <v>1597351000</v>
@@ -1280,8 +1391,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>207452000</v>
@@ -1357,23 +1468,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>120000000</v>
+        <v>120195000</v>
       </c>
       <c r="C9">
-        <v>112000000</v>
+        <v>112083000</v>
       </c>
       <c r="D9">
-        <v>103000000</v>
+        <v>102897000</v>
       </c>
       <c r="E9">
-        <v>22000000</v>
+        <v>92309000</v>
       </c>
       <c r="F9">
-        <v>89000000</v>
+        <v>88808000</v>
       </c>
       <c r="G9">
         <v>87087000</v>
@@ -1479,8 +1590,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>2362164000</v>
@@ -1601,23 +1712,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>6796000000</v>
+        <v>6795530000</v>
       </c>
       <c r="C11">
-        <v>7457000000</v>
+        <v>7457439000</v>
       </c>
       <c r="D11">
-        <v>7521000000</v>
+        <v>7521338000</v>
       </c>
       <c r="E11">
-        <v>7028000000</v>
+        <v>7028112000</v>
       </c>
       <c r="F11">
-        <v>6603000000</v>
+        <v>6602606000</v>
       </c>
       <c r="G11">
         <v>5906564000</v>
@@ -1723,8 +1834,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>93163000</v>
@@ -1845,23 +1956,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>1756000000</v>
+        <v>1662606000</v>
       </c>
       <c r="C13">
-        <v>1927000000</v>
+        <v>1872497000</v>
       </c>
       <c r="D13">
-        <v>2067000000</v>
+        <v>2001180000</v>
       </c>
       <c r="E13">
-        <v>1919000000</v>
+        <v>1813473000</v>
       </c>
       <c r="F13">
-        <v>1864000000</v>
+        <v>1797441000</v>
       </c>
       <c r="G13">
         <v>1622947000</v>
@@ -1967,8 +2078,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>485161000</v>
@@ -2089,23 +2200,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>850000000</v>
+        <v>779000000</v>
       </c>
       <c r="C15">
-        <v>747000000</v>
+        <v>674000000</v>
       </c>
       <c r="D15">
-        <v>641000000</v>
+        <v>572000000</v>
       </c>
       <c r="E15">
-        <v>591000000</v>
+        <v>525000000</v>
       </c>
       <c r="F15">
-        <v>698000000</v>
+        <v>632000000</v>
       </c>
       <c r="G15">
         <v>271215000</v>
@@ -2199,8 +2310,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>62912000</v>
@@ -2321,8 +2432,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>690000000</v>
@@ -2371,23 +2482,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>3359000000</v>
+        <v>3358878000</v>
       </c>
       <c r="C18">
-        <v>3486000000</v>
+        <v>3485750000</v>
       </c>
       <c r="D18">
-        <v>3541000000</v>
+        <v>3541203000</v>
       </c>
       <c r="E18">
-        <v>3326000000</v>
+        <v>3326342000</v>
       </c>
       <c r="F18">
-        <v>3252000000</v>
+        <v>3251693000</v>
       </c>
       <c r="G18">
         <v>2586379000</v>
@@ -2493,23 +2604,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>1713000000</v>
+        <v>1419380000</v>
       </c>
       <c r="C19">
-        <v>1875000000</v>
+        <v>1594055000</v>
       </c>
       <c r="D19">
-        <v>1838000000</v>
+        <v>1593756000</v>
       </c>
       <c r="E19">
-        <v>1635000000</v>
+        <v>1393649000</v>
       </c>
       <c r="F19">
-        <v>1340000000</v>
+        <v>1093950000</v>
       </c>
       <c r="G19">
         <v>1095798000</v>
@@ -2609,23 +2720,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>-189000000</v>
+        <v>18041000</v>
       </c>
       <c r="C20">
-        <v>-118000000</v>
+        <v>16521000</v>
       </c>
       <c r="D20">
-        <v>-112000000</v>
+        <v>17244000</v>
       </c>
       <c r="E20">
-        <v>-109000000</v>
+        <v>16113000</v>
       </c>
       <c r="F20">
-        <v>-6000000</v>
+        <v>20259000</v>
       </c>
       <c r="G20">
         <v>28642000</v>
@@ -2731,23 +2842,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>28000000</v>
+        <v>28345000</v>
       </c>
       <c r="C21">
-        <v>27000000</v>
+        <v>27379000</v>
       </c>
       <c r="D21">
-        <v>29000000</v>
+        <v>29331000</v>
       </c>
       <c r="E21">
-        <v>29000000</v>
+        <v>28705000</v>
       </c>
       <c r="F21">
-        <v>40000000</v>
+        <v>40002000</v>
       </c>
       <c r="G21">
         <v>40507000</v>
@@ -2853,8 +2964,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>1759091000</v>
@@ -2975,23 +3086,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>5118000000</v>
+        <v>5117969000</v>
       </c>
       <c r="C23">
-        <v>5405000000</v>
+        <v>5405024000</v>
       </c>
       <c r="D23">
-        <v>5426000000</v>
+        <v>5425836000</v>
       </c>
       <c r="E23">
-        <v>5006000000</v>
+        <v>5006178000</v>
       </c>
       <c r="F23">
-        <v>4652000000</v>
+        <v>4651806000</v>
       </c>
       <c r="G23">
         <v>4000394000</v>
@@ -3097,8 +3208,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>731496000</v>
@@ -3219,23 +3330,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>12000000</v>
+        <v>12059000</v>
       </c>
       <c r="C25">
-        <v>13000000</v>
+        <v>12512000</v>
       </c>
       <c r="D25">
-        <v>13000000</v>
+        <v>12801000</v>
       </c>
       <c r="E25">
-        <v>13000000</v>
+        <v>12919000</v>
       </c>
       <c r="F25">
-        <v>13000000</v>
+        <v>13038000</v>
       </c>
       <c r="G25">
         <v>13213000</v>
@@ -3341,23 +3452,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>5568000000</v>
+        <v>5567592000</v>
       </c>
       <c r="C26">
-        <v>5411000000</v>
+        <v>5411346000</v>
       </c>
       <c r="D26">
-        <v>5135000000</v>
+        <v>5134667000</v>
       </c>
       <c r="E26">
-        <v>4937000000</v>
+        <v>4936861000</v>
       </c>
       <c r="F26">
-        <v>4780000000</v>
+        <v>4779964000</v>
       </c>
       <c r="G26">
         <v>4601227000</v>
@@ -3463,8 +3574,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>4495936000</v>
@@ -3585,23 +3696,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>1678000000</v>
+        <v>1677561000</v>
       </c>
       <c r="C28">
-        <v>2052000000</v>
+        <v>2052415000</v>
       </c>
       <c r="D28">
-        <v>2096000000</v>
+        <v>2095502000</v>
       </c>
       <c r="E28">
-        <v>2022000000</v>
+        <v>2021934000</v>
       </c>
       <c r="F28">
-        <v>1951000000</v>
+        <v>1950800000</v>
       </c>
       <c r="G28">
         <v>1906170000</v>
@@ -3707,23 +3818,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>1678000000</v>
+        <v>1677561000</v>
       </c>
       <c r="C29">
-        <v>2052000000</v>
+        <v>2052415000</v>
       </c>
       <c r="D29">
-        <v>2096000000</v>
+        <v>2095502000</v>
       </c>
       <c r="E29">
-        <v>2022000000</v>
+        <v>2021934000</v>
       </c>
       <c r="F29">
-        <v>1951000000</v>
+        <v>1950800000</v>
       </c>
       <c r="G29">
         <v>1906170000</v>
@@ -3829,8 +3940,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>6795530000</v>
@@ -3951,8 +4062,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>120594000</v>
@@ -4073,8 +4184,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>151135600</v>
@@ -4195,23 +4306,23 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>2375000000</v>
+        <v>2010848000</v>
       </c>
       <c r="C33">
-        <v>2383000000</v>
+        <v>2029130000</v>
       </c>
       <c r="D33">
-        <v>2236000000</v>
+        <v>1922947000</v>
       </c>
       <c r="E33">
-        <v>1969000000</v>
+        <v>1661236000</v>
       </c>
       <c r="F33">
-        <v>1835000000</v>
+        <v>1523301000</v>
       </c>
       <c r="G33">
         <v>1194210000</v>
@@ -4317,23 +4428,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>2563000000</v>
+        <v>2198380000</v>
       </c>
       <c r="C34">
-        <v>2622000000</v>
+        <v>2268055000</v>
       </c>
       <c r="D34">
-        <v>2479000000</v>
+        <v>2165756000</v>
       </c>
       <c r="E34">
-        <v>2226000000</v>
+        <v>1918649000</v>
       </c>
       <c r="F34">
-        <v>2038000000</v>
+        <v>1725950000</v>
       </c>
       <c r="G34">
         <v>1367013000</v>
